--- a/data/CASTING_UNIT.xlsx
+++ b/data/CASTING_UNIT.xlsx
@@ -364,59 +364,55 @@
       </c>
       <c r="C1" s="0" t="inlineStr">
         <is>
-          <t>Выражение1</t>
+          <t>START_TIME</t>
         </is>
       </c>
       <c r="D1" s="0" t="inlineStr">
         <is>
-          <t>Выражение2</t>
+          <t>PREVIUOS_PRODUCT_ID</t>
         </is>
       </c>
       <c r="E1" s="0" t="inlineStr">
         <is>
-          <t>Выражение3</t>
+          <t>LADLE_POUR_TIME_MAX</t>
         </is>
       </c>
       <c r="F1" s="0" t="inlineStr">
         <is>
-          <t>SCHEME</t>
+          <t>CLEAN_COST</t>
         </is>
       </c>
       <c r="G1" s="0" t="inlineStr">
         <is>
-          <t>Выражение4</t>
+          <t>FE_DECREASE</t>
         </is>
       </c>
       <c r="H1" s="0" t="inlineStr">
         <is>
-          <t>Выражение5</t>
+          <t>SI_DECREASE</t>
         </is>
       </c>
       <c r="I1" s="0" t="inlineStr">
         <is>
-          <t>Выражение6</t>
+          <t>CU_DECREASE</t>
         </is>
       </c>
       <c r="J1" s="0" t="inlineStr">
         <is>
-          <t>Выражение7</t>
+          <t>MG_DECREASE</t>
         </is>
       </c>
       <c r="K1" s="0" t="inlineStr">
         <is>
-          <t>Выражение8</t>
+          <t>MN_DECREASE</t>
         </is>
       </c>
       <c r="L1" s="0" t="inlineStr">
         <is>
-          <t>Выражение9</t>
+          <t>TI_DECREASE</t>
         </is>
       </c>
-      <c r="M1" s="0" t="inlineStr">
-        <is>
-          <t>Выражение10</t>
-        </is>
-      </c>
+      <c r="M1" s="0" t="inlineStr"/>
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="0">
@@ -429,7 +425,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="0">
         <v>0</v>
@@ -449,9 +445,7 @@
       <c r="L2" s="0">
         <v>0</v>
       </c>
-      <c r="M2" s="0">
-        <v>0</v>
-      </c>
+      <c r="M2" s="0"/>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="0">
@@ -464,7 +458,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="0">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G3" s="0">
         <v>0</v>
@@ -484,9 +478,7 @@
       <c r="L3" s="0">
         <v>0</v>
       </c>
-      <c r="M3" s="0">
-        <v>0</v>
-      </c>
+      <c r="M3" s="0"/>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="0">
@@ -499,7 +491,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="0">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -519,9 +511,7 @@
       <c r="L4" s="0">
         <v>0</v>
       </c>
-      <c r="M4" s="0">
-        <v>0</v>
-      </c>
+      <c r="M4" s="0"/>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="0">
@@ -534,7 +524,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="0">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -554,9 +544,7 @@
       <c r="L5" s="0">
         <v>0</v>
       </c>
-      <c r="M5" s="0">
-        <v>0</v>
-      </c>
+      <c r="M5" s="0"/>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="0">
@@ -569,10 +557,10 @@
         <v>8</v>
       </c>
       <c r="F6" s="0">
-        <v>3</v>
+        <v>103.9</v>
       </c>
       <c r="G6" s="0">
-        <v>103.9</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -589,9 +577,7 @@
       <c r="L6" s="0">
         <v>0</v>
       </c>
-      <c r="M6" s="0">
-        <v>0</v>
-      </c>
+      <c r="M6" s="0"/>
     </row>
     <row outlineLevel="0" r="7">
       <c r="A7" s="0">
@@ -604,10 +590,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="0">
-        <v>4</v>
+        <v>103.9</v>
       </c>
       <c r="G7" s="0">
-        <v>103.9</v>
+        <v>0</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
@@ -624,9 +610,7 @@
       <c r="L7" s="0">
         <v>0</v>
       </c>
-      <c r="M7" s="0">
-        <v>0</v>
-      </c>
+      <c r="M7" s="0"/>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="0">
@@ -639,10 +623,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="0">
-        <v>4</v>
+        <v>103.9</v>
       </c>
       <c r="G8" s="0">
-        <v>103.9</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -659,9 +643,7 @@
       <c r="L8" s="0">
         <v>0</v>
       </c>
-      <c r="M8" s="0">
-        <v>0</v>
-      </c>
+      <c r="M8" s="0"/>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="0">
@@ -674,10 +656,10 @@
         <v>7</v>
       </c>
       <c r="F9" s="0">
-        <v>5</v>
+        <v>103.9</v>
       </c>
       <c r="G9" s="0">
-        <v>103.9</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
@@ -694,9 +676,7 @@
       <c r="L9" s="0">
         <v>0</v>
       </c>
-      <c r="M9" s="0">
-        <v>0</v>
-      </c>
+      <c r="M9" s="0"/>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="0">
@@ -709,10 +689,10 @@
         <v>6</v>
       </c>
       <c r="F10" s="0">
-        <v>5</v>
+        <v>45.7</v>
       </c>
       <c r="G10" s="0">
-        <v>45.7</v>
+        <v>0</v>
       </c>
       <c r="H10" s="0">
         <v>0</v>
@@ -729,9 +709,7 @@
       <c r="L10" s="0">
         <v>0</v>
       </c>
-      <c r="M10" s="0">
-        <v>0</v>
-      </c>
+      <c r="M10" s="0"/>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="0">
@@ -744,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="0">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11" s="0">
         <v>0</v>
@@ -764,9 +742,7 @@
       <c r="L11" s="0">
         <v>0</v>
       </c>
-      <c r="M11" s="0">
-        <v>0</v>
-      </c>
+      <c r="M11" s="0"/>
     </row>
     <row outlineLevel="0" r="12">
       <c r="A12" s="0">
@@ -779,7 +755,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="0">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
@@ -799,9 +775,7 @@
       <c r="L12" s="0">
         <v>0</v>
       </c>
-      <c r="M12" s="0">
-        <v>0</v>
-      </c>
+      <c r="M12" s="0"/>
     </row>
     <row outlineLevel="0" r="13">
       <c r="A13" s="0">
@@ -814,7 +788,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="0">
         <v>0</v>
@@ -834,9 +808,7 @@
       <c r="L13" s="0">
         <v>0</v>
       </c>
-      <c r="M13" s="0">
-        <v>0</v>
-      </c>
+      <c r="M13" s="0"/>
     </row>
     <row outlineLevel="0" r="14">
       <c r="A14" s="0">
@@ -849,7 +821,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="0">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
@@ -869,9 +841,7 @@
       <c r="L14" s="0">
         <v>0</v>
       </c>
-      <c r="M14" s="0">
-        <v>0</v>
-      </c>
+      <c r="M14" s="0"/>
     </row>
     <row outlineLevel="0" r="15">
       <c r="A15" s="0">
@@ -884,7 +854,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="0">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G15" s="0">
         <v>0</v>
@@ -904,9 +874,7 @@
       <c r="L15" s="0">
         <v>0</v>
       </c>
-      <c r="M15" s="0">
-        <v>0</v>
-      </c>
+      <c r="M15" s="0"/>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="0">
@@ -919,10 +887,10 @@
         <v>7</v>
       </c>
       <c r="F16" s="0">
-        <v>2</v>
+        <v>76.8</v>
       </c>
       <c r="G16" s="0">
-        <v>76.8</v>
+        <v>0</v>
       </c>
       <c r="H16" s="0">
         <v>0</v>
@@ -939,9 +907,7 @@
       <c r="L16" s="0">
         <v>0</v>
       </c>
-      <c r="M16" s="0">
-        <v>0</v>
-      </c>
+      <c r="M16" s="0"/>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="0">
@@ -954,10 +920,10 @@
         <v>8</v>
       </c>
       <c r="F17" s="0">
-        <v>6</v>
+        <v>34.3</v>
       </c>
       <c r="G17" s="0">
-        <v>34.3</v>
+        <v>0</v>
       </c>
       <c r="H17" s="0">
         <v>0</v>
@@ -974,9 +940,7 @@
       <c r="L17" s="0">
         <v>0</v>
       </c>
-      <c r="M17" s="0">
-        <v>0</v>
-      </c>
+      <c r="M17" s="0"/>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="0">
@@ -989,10 +953,10 @@
         <v>8</v>
       </c>
       <c r="F18" s="0">
-        <v>6</v>
+        <v>34.3</v>
       </c>
       <c r="G18" s="0">
-        <v>34.3</v>
+        <v>0</v>
       </c>
       <c r="H18" s="0">
         <v>0</v>
@@ -1009,9 +973,7 @@
       <c r="L18" s="0">
         <v>0</v>
       </c>
-      <c r="M18" s="0">
-        <v>0</v>
-      </c>
+      <c r="M18" s="0"/>
     </row>
     <row outlineLevel="0" r="19">
       <c r="A19" s="0">
@@ -1024,10 +986,10 @@
         <v>6</v>
       </c>
       <c r="F19" s="0">
-        <v>8</v>
+        <v>34.3</v>
       </c>
       <c r="G19" s="0">
-        <v>34.3</v>
+        <v>0</v>
       </c>
       <c r="H19" s="0">
         <v>0</v>
@@ -1044,9 +1006,7 @@
       <c r="L19" s="0">
         <v>0</v>
       </c>
-      <c r="M19" s="0">
-        <v>0</v>
-      </c>
+      <c r="M19" s="0"/>
     </row>
     <row outlineLevel="0" r="20">
       <c r="A20" s="0">
@@ -1059,10 +1019,10 @@
         <v>8</v>
       </c>
       <c r="F20" s="0">
-        <v>8</v>
+        <v>34.3</v>
       </c>
       <c r="G20" s="0">
-        <v>34.3</v>
+        <v>0</v>
       </c>
       <c r="H20" s="0">
         <v>0</v>
@@ -1079,9 +1039,7 @@
       <c r="L20" s="0">
         <v>0</v>
       </c>
-      <c r="M20" s="0">
-        <v>0</v>
-      </c>
+      <c r="M20" s="0"/>
     </row>
     <row outlineLevel="0" r="21">
       <c r="A21" s="0">
@@ -1094,10 +1052,10 @@
         <v>8</v>
       </c>
       <c r="F21" s="0">
-        <v>1</v>
+        <v>34.3</v>
       </c>
       <c r="G21" s="0">
-        <v>34.3</v>
+        <v>0</v>
       </c>
       <c r="H21" s="0">
         <v>0</v>
@@ -1114,9 +1072,7 @@
       <c r="L21" s="0">
         <v>0</v>
       </c>
-      <c r="M21" s="0">
-        <v>0</v>
-      </c>
+      <c r="M21" s="0"/>
     </row>
     <row outlineLevel="0" r="22">
       <c r="A22" s="0">
@@ -1129,10 +1085,10 @@
         <v>8</v>
       </c>
       <c r="F22" s="0">
-        <v>2</v>
+        <v>34.3</v>
       </c>
       <c r="G22" s="0">
-        <v>34.3</v>
+        <v>0</v>
       </c>
       <c r="H22" s="0">
         <v>0</v>
@@ -1149,9 +1105,7 @@
       <c r="L22" s="0">
         <v>0</v>
       </c>
-      <c r="M22" s="0">
-        <v>0</v>
-      </c>
+      <c r="M22" s="0"/>
     </row>
     <row outlineLevel="0" r="23">
       <c r="A23" s="0">
@@ -1164,10 +1118,10 @@
         <v>8</v>
       </c>
       <c r="F23" s="0">
-        <v>1</v>
+        <v>34.3</v>
       </c>
       <c r="G23" s="0">
-        <v>34.3</v>
+        <v>0</v>
       </c>
       <c r="H23" s="0">
         <v>0</v>
@@ -1184,9 +1138,7 @@
       <c r="L23" s="0">
         <v>0</v>
       </c>
-      <c r="M23" s="0">
-        <v>0</v>
-      </c>
+      <c r="M23" s="0"/>
     </row>
     <row outlineLevel="0" r="24">
       <c r="A24" s="0">
@@ -1199,10 +1151,10 @@
         <v>9</v>
       </c>
       <c r="F24" s="0">
-        <v>5</v>
+        <v>105.5</v>
       </c>
       <c r="G24" s="0">
-        <v>105.5</v>
+        <v>0</v>
       </c>
       <c r="H24" s="0">
         <v>0</v>
@@ -1219,9 +1171,7 @@
       <c r="L24" s="0">
         <v>0</v>
       </c>
-      <c r="M24" s="0">
-        <v>0</v>
-      </c>
+      <c r="M24" s="0"/>
     </row>
     <row outlineLevel="0" r="25">
       <c r="A25" s="0">
@@ -1234,10 +1184,10 @@
         <v>7</v>
       </c>
       <c r="F25" s="0">
-        <v>7</v>
+        <v>791.1</v>
       </c>
       <c r="G25" s="0">
-        <v>791.1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="0">
         <v>0</v>
@@ -1254,9 +1204,7 @@
       <c r="L25" s="0">
         <v>0</v>
       </c>
-      <c r="M25" s="0">
-        <v>0</v>
-      </c>
+      <c r="M25" s="0"/>
     </row>
     <row outlineLevel="0" r="26">
       <c r="A26" s="0">
@@ -1269,10 +1217,10 @@
         <v>10</v>
       </c>
       <c r="F26" s="0">
-        <v>3</v>
+        <v>791.1</v>
       </c>
       <c r="G26" s="0">
-        <v>791.1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="0">
         <v>0</v>
@@ -1289,9 +1237,7 @@
       <c r="L26" s="0">
         <v>0</v>
       </c>
-      <c r="M26" s="0">
-        <v>0</v>
-      </c>
+      <c r="M26" s="0"/>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="0">
@@ -1304,10 +1250,10 @@
         <v>8</v>
       </c>
       <c r="F27" s="0">
-        <v>4</v>
+        <v>791.1</v>
       </c>
       <c r="G27" s="0">
-        <v>791.1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="0">
         <v>0</v>
@@ -1324,9 +1270,7 @@
       <c r="L27" s="0">
         <v>0</v>
       </c>
-      <c r="M27" s="0">
-        <v>0</v>
-      </c>
+      <c r="M27" s="0"/>
     </row>
     <row outlineLevel="0" r="28">
       <c r="A28" s="0">
@@ -1339,10 +1283,10 @@
         <v>9</v>
       </c>
       <c r="F28" s="0">
-        <v>2</v>
+        <v>456.9</v>
       </c>
       <c r="G28" s="0">
-        <v>456.9</v>
+        <v>0</v>
       </c>
       <c r="H28" s="0">
         <v>0</v>
@@ -1359,9 +1303,7 @@
       <c r="L28" s="0">
         <v>0</v>
       </c>
-      <c r="M28" s="0">
-        <v>0</v>
-      </c>
+      <c r="M28" s="0"/>
     </row>
     <row outlineLevel="0" r="29">
       <c r="A29" s="0">
@@ -1374,7 +1316,7 @@
         <v>6</v>
       </c>
       <c r="F29" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G29" s="0">
         <v>0</v>
@@ -1394,9 +1336,7 @@
       <c r="L29" s="0">
         <v>0</v>
       </c>
-      <c r="M29" s="0">
-        <v>0</v>
-      </c>
+      <c r="M29" s="0"/>
     </row>
     <row outlineLevel="0" r="30">
       <c r="A30" s="0">
@@ -1409,10 +1349,10 @@
         <v>7</v>
       </c>
       <c r="F30" s="0">
-        <v>2</v>
+        <v>456.9</v>
       </c>
       <c r="G30" s="0">
-        <v>456.9</v>
+        <v>0</v>
       </c>
       <c r="H30" s="0">
         <v>0</v>
@@ -1429,9 +1369,7 @@
       <c r="L30" s="0">
         <v>0</v>
       </c>
-      <c r="M30" s="0">
-        <v>0</v>
-      </c>
+      <c r="M30" s="0"/>
     </row>
     <row outlineLevel="0" r="31">
       <c r="A31" s="0">
@@ -1444,7 +1382,7 @@
         <v>7</v>
       </c>
       <c r="F31" s="0">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G31" s="0">
         <v>0</v>
@@ -1464,9 +1402,7 @@
       <c r="L31" s="0">
         <v>0</v>
       </c>
-      <c r="M31" s="0">
-        <v>0</v>
-      </c>
+      <c r="M31" s="0"/>
     </row>
     <row outlineLevel="0" r="32">
       <c r="A32" s="0">
@@ -1479,10 +1415,10 @@
         <v>8</v>
       </c>
       <c r="F32" s="0">
-        <v>1</v>
+        <v>85.1</v>
       </c>
       <c r="G32" s="0">
-        <v>85.1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="0">
         <v>0</v>
@@ -1499,9 +1435,7 @@
       <c r="L32" s="0">
         <v>0</v>
       </c>
-      <c r="M32" s="0">
-        <v>0</v>
-      </c>
+      <c r="M32" s="0"/>
     </row>
     <row outlineLevel="0" r="33">
       <c r="A33" s="0">
@@ -1514,10 +1448,10 @@
         <v>7</v>
       </c>
       <c r="F33" s="0">
-        <v>6</v>
+        <v>217.55</v>
       </c>
       <c r="G33" s="0">
-        <v>217.55</v>
+        <v>0</v>
       </c>
       <c r="H33" s="0">
         <v>0</v>
@@ -1534,9 +1468,7 @@
       <c r="L33" s="0">
         <v>0</v>
       </c>
-      <c r="M33" s="0">
-        <v>0</v>
-      </c>
+      <c r="M33" s="0"/>
     </row>
     <row outlineLevel="0" r="34">
       <c r="A34" s="0">
@@ -1549,10 +1481,10 @@
         <v>8</v>
       </c>
       <c r="F34" s="0">
-        <v>3</v>
+        <v>791.1</v>
       </c>
       <c r="G34" s="0">
-        <v>791.1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="0">
         <v>0</v>
@@ -1569,9 +1501,7 @@
       <c r="L34" s="0">
         <v>0</v>
       </c>
-      <c r="M34" s="0">
-        <v>0</v>
-      </c>
+      <c r="M34" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
